--- a/Session_03/gradient_descent.xlsx
+++ b/Session_03/gradient_descent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliver/Documents/Git/vhbprodok_datascience/_misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliver/Documents/Git/ds4b-2025/Session_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DEE031-87C6-3548-BB89-43B00739DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8B2B9E-7844-4C4D-BCF0-25D8053BC43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{63849087-0FE2-AF4B-ACB7-CB07C279593B}"/>
+    <workbookView xWindow="45040" yWindow="-1820" windowWidth="30240" windowHeight="17260" xr2:uid="{63849087-0FE2-AF4B-ACB7-CB07C279593B}"/>
   </bookViews>
   <sheets>
     <sheet name="Gradient Desent" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>Learning Rate</t>
   </si>
   <si>
-    <t>Slope</t>
+    <t>Gradient</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
